--- a/parkrun-times.xlsx
+++ b/parkrun-times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinemillar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE78B06D-C25C-5D40-80AD-DD64E7060633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C65D0A0-140B-6C4D-9862-AF61F820751C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{EC8E44B9-25C3-EA4B-9CD5-5C12DB7764E3}"/>
+    <workbookView xWindow="0" yWindow="2660" windowWidth="28040" windowHeight="16260" xr2:uid="{EC8E44B9-25C3-EA4B-9CD5-5C12DB7764E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,8 +92,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CDE005C-6A2D-044B-A183-DFEC0717D0F6}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,8 +443,8 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>1.4930555555555556</v>
+      <c r="D2" s="3">
+        <v>35.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -457,8 +457,8 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>1.4222222222222223</v>
+      <c r="D3">
+        <v>34.08</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -471,8 +471,8 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>1.3555555555555554</v>
+      <c r="D4">
+        <v>32.32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -485,8 +485,8 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>1.3944444444444446</v>
+      <c r="D5">
+        <v>33.380000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -499,8 +499,8 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>1.3194444444444444</v>
+      <c r="D6">
+        <v>31.4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -513,8 +513,8 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
-        <v>1.3</v>
+      <c r="D7">
+        <v>31.12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -527,8 +527,8 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
-        <v>1.2958333333333334</v>
+      <c r="D8">
+        <v>31.06</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -541,8 +541,8 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
-        <v>1.3166666666666667</v>
+      <c r="D9">
+        <v>31.36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -555,8 +555,8 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="2">
-        <v>1.3486111111111112</v>
+      <c r="D10">
+        <v>32.22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -569,8 +569,8 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="2">
-        <v>1.3361111111111112</v>
+      <c r="D11">
+        <v>32.04</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,8 +583,8 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2">
-        <v>1.3486111111111112</v>
+      <c r="D12">
+        <v>32.22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,8 +597,8 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
-        <v>1.325</v>
+      <c r="D13">
+        <v>31.48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -611,8 +611,8 @@
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
-        <v>1.3548611111111111</v>
+      <c r="D14">
+        <v>32.31</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,8 +625,8 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>1.3388888888888888</v>
+      <c r="D15">
+        <v>32.08</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,8 +639,8 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
-        <v>1.346527777777778</v>
+      <c r="D16">
+        <v>32.19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,8 +653,8 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2">
-        <v>1.3027777777777778</v>
+      <c r="D17">
+        <v>31.16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -667,8 +667,8 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2">
-        <v>1.2895833333333333</v>
+      <c r="D18">
+        <v>30.57</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,8 +681,8 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="2">
-        <v>1.2895833333333333</v>
+      <c r="D19">
+        <v>30.57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,8 +695,8 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2">
-        <v>1.2826388888888889</v>
+      <c r="D20">
+        <v>30.47</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,12 +709,12 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="2">
-        <v>1.2388888888888889</v>
+      <c r="D21">
+        <v>29.44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>44849</v>
       </c>
       <c r="B22">
@@ -723,8 +723,8 @@
       <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
-        <v>1.3180555555555555</v>
+      <c r="D22">
+        <v>31.38</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -737,8 +737,8 @@
       <c r="C23" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="2">
-        <v>1.3166666666666667</v>
+      <c r="D23">
+        <v>31.36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,8 +751,8 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="2">
-        <v>1.3020833333333333</v>
+      <c r="D24">
+        <v>31.15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -765,8 +765,8 @@
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
-        <v>1.2902777777777776</v>
+      <c r="D25">
+        <v>30.58</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -779,8 +779,8 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
-        <v>1.3152777777777778</v>
+      <c r="D26">
+        <v>31.34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -793,8 +793,8 @@
       <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="2">
-        <v>1.3118055555555557</v>
+      <c r="D27">
+        <v>31.29</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,8 +807,8 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="2">
-        <v>1.3298611111111112</v>
+      <c r="D28">
+        <v>31.55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -821,8 +821,8 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="2">
-        <v>1.3180555555555555</v>
+      <c r="D29">
+        <v>31.38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -835,8 +835,8 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="2">
-        <v>1.3763888888888889</v>
+      <c r="D30">
+        <v>33.020000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -849,8 +849,8 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="2">
-        <v>1.2527777777777778</v>
+      <c r="D31">
+        <v>30.04</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -863,8 +863,8 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="2">
-        <v>1.3291666666666666</v>
+      <c r="D32">
+        <v>31.54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -877,8 +877,8 @@
       <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="2">
-        <v>1.3458333333333332</v>
+      <c r="D33">
+        <v>32.18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -891,8 +891,8 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="2">
-        <v>1.2743055555555556</v>
+      <c r="D34">
+        <v>30.35</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -905,8 +905,8 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2">
-        <v>1.2326388888888888</v>
+      <c r="D35">
+        <v>29.35</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -919,8 +919,8 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="2">
-        <v>1.2638888888888888</v>
+      <c r="D36">
+        <v>30.2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,8 +933,8 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="2">
-        <v>1.3020833333333333</v>
+      <c r="D37">
+        <v>31.15</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,8 +947,8 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
-        <v>1.2874999999999999</v>
+      <c r="D38">
+        <v>30.54</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -961,8 +961,8 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="2">
-        <v>1.2618055555555556</v>
+      <c r="D39">
+        <v>30.17</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -975,8 +975,8 @@
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="2">
-        <v>1.3597222222222223</v>
+      <c r="D40">
+        <v>32.380000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -989,8 +989,8 @@
       <c r="C41" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2">
-        <v>1.2513888888888889</v>
+      <c r="D41">
+        <v>30.02</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1003,8 +1003,8 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2">
-        <v>1.2180555555555557</v>
+      <c r="D42">
+        <v>29.14</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,8 +1017,8 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
-        <v>1.2229166666666667</v>
+      <c r="D43">
+        <v>29.21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,8 +1031,8 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="2">
-        <v>1.2395833333333333</v>
+      <c r="D44">
+        <v>29.45</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,8 +1045,8 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="2">
-        <v>1.2631944444444445</v>
+      <c r="D45">
+        <v>30.19</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1059,8 +1059,8 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="2">
-        <v>1.2034722222222223</v>
+      <c r="D46">
+        <v>28.53</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,8 +1073,8 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="2">
-        <v>1.1861111111111111</v>
+      <c r="D47">
+        <v>28.28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1087,8 +1087,8 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="2">
-        <v>1.1423611111111112</v>
+      <c r="D48">
+        <v>27.25</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1101,8 +1101,8 @@
       <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="2">
-        <v>1.1763888888888889</v>
+      <c r="D49">
+        <v>28.14</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,8 +1115,8 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="2">
-        <v>1.1659722222222222</v>
+      <c r="D50">
+        <v>27.59</v>
       </c>
     </row>
   </sheetData>
